--- a/data/emptyapp-startup.xlsx
+++ b/data/emptyapp-startup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\cross-platform-performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ABE929-7675-4FBD-83ED-B5CC134FC7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5305E435-7E0E-4699-ACE9-B00D6C88EF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -278,6 +278,14 @@
                 <a:cs typeface="+mj-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EmptyApp</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Startup Benchmark </a:t>

--- a/data/emptyapp-startup.xlsx
+++ b/data/emptyapp-startup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\cross-platform-performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5305E435-7E0E-4699-ACE9-B00D6C88EF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB605E6-E074-40D7-B490-8F8982061A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
     <t>UNO Platform</t>
   </si>
   <si>
-    <t>Startup Time</t>
+    <t>Startup Time (ms)</t>
   </si>
 </sst>
 </file>
@@ -338,7 +338,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Startup Time</c:v>
+                  <c:v>Startup Time (ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -386,6 +386,9 @@
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>380.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>239.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1026.0999999999999</c:v>
@@ -1174,7 +1177,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="Fecha">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Startup Time" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Startup Time (ms)" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="Manufacturing Output" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1419,7 +1422,7 @@
   <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,7 +1467,9 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5">
+        <v>239.7</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">

--- a/data/emptyapp-startup.xlsx
+++ b/data/emptyapp-startup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\cross-platform-performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB605E6-E074-40D7-B490-8F8982061A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5983964D-85B9-4D98-B365-8074D5288B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,6 +393,9 @@
                 <c:pt idx="3">
                   <c:v>1026.0999999999999</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>347.2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1422,7 +1425,7 @@
   <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,7 +1486,9 @@
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5">
+        <v>347.2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">
